--- a/data/trans_dic/P32E$casa_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1974081018859307</v>
+        <v>0.2051211146278795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05825655230757411</v>
+        <v>0.05778176914598057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1933848648802498</v>
+        <v>0.2061301889270152</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5475602667807851</v>
+        <v>0.5453911211577143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5274325030089039</v>
+        <v>0.5166314832342594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4678338877118457</v>
+        <v>0.4871991213195074</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.6065227084465087</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4317189208121511</v>
+        <v>0.431718920812151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5377575198542365</v>
+        <v>0.5377575198542363</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4068366045822295</v>
+        <v>0.4210329270165175</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2472133521709534</v>
+        <v>0.2659344744342195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4060274081508934</v>
+        <v>0.3982932647566849</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7879849003519773</v>
+        <v>0.7906353876357403</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6405619752954502</v>
+        <v>0.6374653027424818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6809399015474994</v>
+        <v>0.6784896416805257</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6257151649242736</v>
+        <v>0.6257151649242735</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.4743632938938574</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4173053930545041</v>
+        <v>0.400054135946027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08414431930141768</v>
+        <v>0.09089893444540616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4175447869662202</v>
+        <v>0.4050244287418296</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8170027164988974</v>
+        <v>0.8111259266476504</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7684426167432529</v>
+        <v>0.7687437179550199</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5549125528172708</v>
+        <v>0.5549125528172709</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.301085447081903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4855028270462927</v>
+        <v>0.4855028270462928</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4019403102083025</v>
+        <v>0.4122092502899642</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.131700696516113</v>
+        <v>0.1407612028410988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3591703164589152</v>
+        <v>0.3553493529680301</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7075551034111084</v>
+        <v>0.7029558315244163</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5359048938380027</v>
+        <v>0.5525051493079314</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6125104167894816</v>
+        <v>0.6064787549942027</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6905</v>
+        <v>7175</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8910</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19153</v>
+        <v>19077</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5852</v>
+        <v>5733</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21555</v>
+        <v>22448</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15805</v>
+        <v>16357</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6228</v>
+        <v>6700</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26003</v>
+        <v>25507</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30612</v>
+        <v>30715</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16138</v>
+        <v>16060</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43609</v>
+        <v>43452</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12576</v>
+        <v>12056</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15192</v>
+        <v>14736</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24621</v>
+        <v>24444</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>6248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27959</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23119</v>
+        <v>23709</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2851</v>
+        <v>3047</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28434</v>
+        <v>28132</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40697</v>
+        <v>40433</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11601</v>
+        <v>11961</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48491</v>
+        <v>48013</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
     </row>
     <row r="24">
